--- a/Data/EC/NIT-9016764557.xlsx
+++ b/Data/EC/NIT-9016764557.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CA7F027-4BFA-4D51-8D71-2B6EF5A6046B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{152D80C6-2C0F-43C2-A7FD-85FC7DF8E692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{49DCCE79-9A84-4DB4-9293-F0E0ACE23ED2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C2D5AACE-D9E0-478D-8322-56CD2C6D88E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,19 +71,46 @@
     <t>JOSE HERNAN ROMERO ATENCIO</t>
   </si>
   <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
     <t>2403</t>
   </si>
   <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
+    <t>7919980</t>
+  </si>
+  <si>
+    <t>ENRIQUE CARLOS CASTRO SALCEDO</t>
   </si>
   <si>
     <t>1050968241</t>
@@ -92,7 +119,22 @@
     <t>KEYLA PAOLA PATERNINA TORCUATO</t>
   </si>
   <si>
-    <t>2408</t>
+    <t>1046274326</t>
+  </si>
+  <si>
+    <t>CARLOS MARIO HERNANDEZ MORALES</t>
+  </si>
+  <si>
+    <t>1047510512</t>
+  </si>
+  <si>
+    <t>GERMAN DAVID MAZO SIERRA</t>
+  </si>
+  <si>
+    <t>1003714323</t>
+  </si>
+  <si>
+    <t>MARIA CLAUDIA MADRID ROSSO</t>
   </si>
   <si>
     <t>PPT</t>
@@ -102,48 +144,6 @@
   </si>
   <si>
     <t>GLEIDIMAR DEL CARMEN BETANCOURTH CAICEDO</t>
-  </si>
-  <si>
-    <t>1046274326</t>
-  </si>
-  <si>
-    <t>CARLOS MARIO HERNANDEZ MORALES</t>
-  </si>
-  <si>
-    <t>1047510512</t>
-  </si>
-  <si>
-    <t>GERMAN DAVID MAZO SIERRA</t>
-  </si>
-  <si>
-    <t>7919980</t>
-  </si>
-  <si>
-    <t>ENRIQUE CARLOS CASTRO SALCEDO</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>1003714323</t>
-  </si>
-  <si>
-    <t>MARIA CLAUDIA MADRID ROSSO</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -557,7 +557,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B593108E-444E-0604-11B1-16CA5D9CE9BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A02B3F6F-8496-11C7-E1BB-A05EFE9EB3A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -908,7 +908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7255EF-D0BC-42D2-9E34-FED907C4F172}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7599B68-DDCA-423D-B72A-2BF6C04DC170}">
   <dimension ref="B2:J54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>45066</v>
+        <v>32933</v>
       </c>
       <c r="G16" s="18">
         <v>1300000</v>
@@ -1192,19 +1192,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F21" s="18">
         <v>52000</v>
       </c>
       <c r="G21" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1221,7 +1221,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1235,13 +1235,13 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>18</v>
@@ -1261,19 +1261,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1284,13 +1284,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1307,13 +1307,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1336,10 +1336,10 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>52000</v>
+        <v>45066</v>
       </c>
       <c r="G27" s="18">
         <v>1300000</v>
@@ -1353,19 +1353,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
-        <v>52000</v>
+        <v>32933</v>
       </c>
       <c r="G28" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1376,13 +1376,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1399,13 +1399,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>25</v>
-      </c>
       <c r="E30" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1419,16 +1419,16 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1445,13 +1445,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1468,19 +1468,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F33" s="18">
         <v>52000</v>
       </c>
       <c r="G33" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1491,19 +1491,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
       </c>
       <c r="G34" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1514,13 +1514,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="E35" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1537,13 +1537,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1560,16 +1560,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F37" s="18">
-        <v>52000</v>
+        <v>32933</v>
       </c>
       <c r="G37" s="18">
         <v>828116</v>
@@ -1583,19 +1583,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
       </c>
       <c r="G38" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1606,19 +1606,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
       </c>
       <c r="G39" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1629,19 +1629,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
       </c>
       <c r="G40" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1652,13 +1652,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1675,19 +1675,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
       </c>
       <c r="G42" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1698,13 +1698,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
@@ -1721,13 +1721,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -1744,13 +1744,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F45" s="18">
         <v>52000</v>
@@ -1767,16 +1767,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F46" s="18">
-        <v>32933</v>
+        <v>52000</v>
       </c>
       <c r="G46" s="18">
         <v>1300000</v>
@@ -1787,22 +1787,22 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F47" s="18">
-        <v>32933</v>
+        <v>52000</v>
       </c>
       <c r="G47" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1810,19 +1810,19 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="21" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F48" s="24">
-        <v>32933</v>
+        <v>52000</v>
       </c>
       <c r="G48" s="24">
         <v>1300000</v>

--- a/Data/EC/NIT-9016764557.xlsx
+++ b/Data/EC/NIT-9016764557.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{152D80C6-2C0F-43C2-A7FD-85FC7DF8E692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7711C405-6BFA-423D-97C8-2F1F2202632A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C2D5AACE-D9E0-478D-8322-56CD2C6D88E0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FAF21446-A120-4DC5-9C53-71678D63FE2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,79 +71,79 @@
     <t>JOSE HERNAN ROMERO ATENCIO</t>
   </si>
   <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>7919980</t>
+  </si>
+  <si>
+    <t>ENRIQUE CARLOS CASTRO SALCEDO</t>
+  </si>
+  <si>
+    <t>1050968241</t>
+  </si>
+  <si>
+    <t>KEYLA PAOLA PATERNINA TORCUATO</t>
+  </si>
+  <si>
+    <t>1046274326</t>
+  </si>
+  <si>
+    <t>CARLOS MARIO HERNANDEZ MORALES</t>
+  </si>
+  <si>
+    <t>1047510512</t>
+  </si>
+  <si>
+    <t>GERMAN DAVID MAZO SIERRA</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>5943946</t>
+  </si>
+  <si>
+    <t>GLEIDIMAR DEL CARMEN BETANCOURTH CAICEDO</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>1003714323</t>
+  </si>
+  <si>
+    <t>MARIA CLAUDIA MADRID ROSSO</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
     <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>7919980</t>
-  </si>
-  <si>
-    <t>ENRIQUE CARLOS CASTRO SALCEDO</t>
-  </si>
-  <si>
-    <t>1050968241</t>
-  </si>
-  <si>
-    <t>KEYLA PAOLA PATERNINA TORCUATO</t>
-  </si>
-  <si>
-    <t>1046274326</t>
-  </si>
-  <si>
-    <t>CARLOS MARIO HERNANDEZ MORALES</t>
-  </si>
-  <si>
-    <t>1047510512</t>
-  </si>
-  <si>
-    <t>GERMAN DAVID MAZO SIERRA</t>
-  </si>
-  <si>
-    <t>1003714323</t>
-  </si>
-  <si>
-    <t>MARIA CLAUDIA MADRID ROSSO</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>5943946</t>
-  </si>
-  <si>
-    <t>GLEIDIMAR DEL CARMEN BETANCOURTH CAICEDO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -242,7 +242,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -255,9 +257,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -457,23 +457,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,10 +501,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,7 +557,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A02B3F6F-8496-11C7-E1BB-A05EFE9EB3A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47CECEA7-4AB2-C544-FFA3-BDAD9B933A44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -908,7 +908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7599B68-DDCA-423D-B72A-2BF6C04DC170}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C13BE44-ADE2-470F-9B54-A86B915E9E74}">
   <dimension ref="B2:J54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>32933</v>
+        <v>45066</v>
       </c>
       <c r="G16" s="18">
         <v>1300000</v>
@@ -1215,13 +1215,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1238,13 +1238,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1261,13 +1261,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1284,13 +1284,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1304,16 +1304,16 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1336,10 +1336,10 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F27" s="18">
-        <v>45066</v>
+        <v>52000</v>
       </c>
       <c r="G27" s="18">
         <v>1300000</v>
@@ -1353,16 +1353,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
-        <v>32933</v>
+        <v>52000</v>
       </c>
       <c r="G28" s="18">
         <v>1300000</v>
@@ -1376,13 +1376,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1399,13 +1399,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1428,7 +1428,7 @@
         <v>24</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1445,13 +1445,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1465,16 +1465,16 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1491,13 +1491,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1514,13 +1514,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1537,13 +1537,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1560,19 +1560,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>32933</v>
+        <v>52000</v>
       </c>
       <c r="G37" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1583,19 +1583,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
       </c>
       <c r="G38" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1606,19 +1606,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
       </c>
       <c r="G39" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1629,19 +1629,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
       </c>
       <c r="G40" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1652,19 +1652,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
       </c>
       <c r="G41" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1675,19 +1675,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
       </c>
       <c r="G42" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1698,19 +1698,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
       </c>
       <c r="G43" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1721,13 +1721,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -1744,13 +1744,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F45" s="18">
         <v>52000</v>
@@ -1767,16 +1767,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F46" s="18">
-        <v>52000</v>
+        <v>32933</v>
       </c>
       <c r="G46" s="18">
         <v>1300000</v>
@@ -1787,19 +1787,19 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D47" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E47" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F47" s="18">
-        <v>52000</v>
+        <v>32933</v>
       </c>
       <c r="G47" s="18">
         <v>1300000</v>
@@ -1810,19 +1810,19 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="21" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D48" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="22" t="s">
-        <v>17</v>
-      </c>
       <c r="F48" s="24">
-        <v>52000</v>
+        <v>32933</v>
       </c>
       <c r="G48" s="24">
         <v>1300000</v>

--- a/Data/EC/NIT-9016764557.xlsx
+++ b/Data/EC/NIT-9016764557.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7711C405-6BFA-423D-97C8-2F1F2202632A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11E7CF56-8231-413A-A5EA-08CDDC007E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FAF21446-A120-4DC5-9C53-71678D63FE2C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D1A5FCC8-374A-4735-B3FF-16503DA7FCBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -242,9 +242,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -257,7 +255,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -451,29 +451,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,19 +492,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,7 +563,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47CECEA7-4AB2-C544-FFA3-BDAD9B933A44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5288AA0-D342-35DE-115A-F06CE7C49D79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -908,7 +914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C13BE44-ADE2-470F-9B54-A86B915E9E74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594E4805-9F90-4F4B-BE82-61AD3A66D2BB}">
   <dimension ref="B2:J54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -931,49 +937,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -981,7 +987,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -997,7 +1003,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9016764557</v>
       </c>
@@ -1013,7 +1019,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>1651865</v>
       </c>
@@ -1082,18 +1088,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>45066</v>
       </c>
-      <c r="G16" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="G16" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1105,18 +1111,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="F17" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1128,18 +1134,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1151,18 +1157,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1174,18 +1180,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1197,18 +1203,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1220,18 +1226,18 @@
       <c r="D22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1243,18 +1249,18 @@
       <c r="D23" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1266,18 +1272,18 @@
       <c r="D24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1289,18 +1295,18 @@
       <c r="D25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1312,18 +1318,18 @@
       <c r="D26" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1335,18 +1341,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1358,18 +1364,18 @@
       <c r="D28" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1381,18 +1387,18 @@
       <c r="D29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1404,18 +1410,18 @@
       <c r="D30" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1427,18 +1433,18 @@
       <c r="D31" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1450,18 +1456,18 @@
       <c r="D32" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1473,18 +1479,18 @@
       <c r="D33" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1496,18 +1502,18 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1519,18 +1525,18 @@
       <c r="D35" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1542,18 +1548,18 @@
       <c r="D36" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1565,18 +1571,18 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G37" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1588,18 +1594,18 @@
       <c r="D38" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1611,18 +1617,18 @@
       <c r="D39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1634,18 +1640,18 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F40" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1657,18 +1663,18 @@
       <c r="D41" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1680,18 +1686,18 @@
       <c r="D42" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G42" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1703,18 +1709,18 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1726,18 +1732,18 @@
       <c r="D44" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G44" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1749,18 +1755,18 @@
       <c r="D45" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1772,18 +1778,18 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>32933</v>
       </c>
-      <c r="G46" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="G46" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1795,47 +1801,47 @@
       <c r="D47" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>32933</v>
       </c>
-      <c r="G47" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="G47" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="22" t="s">
+      <c r="B48" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="26">
         <v>32933</v>
       </c>
-      <c r="G48" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
+      <c r="G48" s="26">
+        <v>1300000</v>
+      </c>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="32"/>
+      <c r="C53" s="34"/>
       <c r="H53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1843,10 +1849,10 @@
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="32"/>
+      <c r="C54" s="34"/>
       <c r="H54" s="1" t="s">
         <v>46</v>
       </c>
